--- a/Yakeey_Final/ScrapingYakeey.xlsx
+++ b/Yakeey_Final/ScrapingYakeey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/othmaneirhboula/WebScrap/Yakeey_Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC098AE6-CD04-D441-B364-340A1CA0A97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50952494-8FA2-A543-9D83-D3292F1156C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -16056,8 +16056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BX1199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" zoomScale="270" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
